--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=any.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=any.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.267</v>
+        <v>0.345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004</v>
+        <v>0.077</v>
       </c>
       <c r="D4" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.067</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.228</v>
-      </c>
       <c r="AF4" t="n">
-        <v>2.208</v>
+        <v>2.222</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.188</v>
+        <v>0.103</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.433</v>
+        <v>0.32</v>
       </c>
       <c r="AI4" t="n">
         <v>0.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.188</v>
+        <v>0.146</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.433</v>
+        <v>0.382</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.708</v>
+        <v>0.713</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.089</v>
+        <v>0.123</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.298</v>
+        <v>0.351</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.736</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="E5" t="n">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="F5" t="n">
-        <v>1.188</v>
+        <v>0.139</v>
       </c>
       <c r="G5" t="n">
-        <v>1.09</v>
+        <v>0.373</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="K5" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="L5" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="M5" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="N5" t="n">
-        <v>1.75</v>
+        <v>0.833</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.139</v>
       </c>
       <c r="P5" t="n">
-        <v>0.829</v>
+        <v>0.373</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="T5" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="U5" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="V5" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5</v>
+        <v>0.778</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.25</v>
+        <v>0.173</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5</v>
+        <v>0.416</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.25</v>
+        <v>0.889</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.188</v>
+        <v>0.099</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.09</v>
+        <v>0.314</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.5</v>
+        <v>2.666</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.188</v>
+        <v>0.052</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.433</v>
+        <v>0.229</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.833</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.421</v>
+        <v>0.488</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.417</v>
+        <v>0.315</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.569</v>
+        <v>0.61</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.828</v>
+        <v>0.413</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.805</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.553</v>
+        <v>0.588</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.413</v>
+        <v>0.392</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.5</v>
+        <v>0.569</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.37</v>
+        <v>0.268</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.329</v>
+        <v>2.421</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.75</v>
+        <v>0.789</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.829</v>
+        <v>0.791</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.776</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.646</v>
+        <v>0.649</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.694</v>
+        <v>0.502</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.556</v>
+        <v>0.549</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.665</v>
+        <v>0.727</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1.21</v>
+        <v>0.593</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.821</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.656</v>
+        <v>0.714</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.637</v>
+        <v>0.574</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.5</v>
+        <v>0.679</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.64</v>
+        <v>0.462</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.424</v>
+        <v>2.562</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.75</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.924</v>
+        <v>0.847</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.798</v>
+        <v>0.649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.322</v>
+        <v>0.134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.803</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.344</v>
       </c>
       <c r="K8" t="n">
-        <v>0.75</v>
+        <v>0.785</v>
       </c>
       <c r="L8" t="n">
-        <v>0.188</v>
+        <v>0.142</v>
       </c>
       <c r="M8" t="n">
-        <v>0.433</v>
+        <v>0.377</v>
       </c>
       <c r="N8" t="n">
-        <v>1.44</v>
+        <v>0.792</v>
       </c>
       <c r="O8" t="n">
-        <v>0.225</v>
+        <v>0.139</v>
       </c>
       <c r="P8" t="n">
-        <v>0.475</v>
+        <v>0.372</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="T8" t="n">
-        <v>0.75</v>
+        <v>0.765</v>
       </c>
       <c r="U8" t="n">
-        <v>0.188</v>
+        <v>0.14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.433</v>
+        <v>0.375</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.765</v>
       </c>
       <c r="X8" t="n">
-        <v>0.035</v>
+        <v>0.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.187</v>
+        <v>0.375</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5</v>
+        <v>0.729</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.25</v>
+        <v>0.171</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5</v>
+        <v>0.413</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.787</v>
+        <v>0.82</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.748</v>
+        <v>0.328</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.408</v>
+        <v>2.577</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.188</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.433</v>
+        <v>0.263</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.908</v>
+        <v>0.868</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.026</v>
+        <v>0.101</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.16</v>
+        <v>0.318</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.803</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="9">
@@ -1297,124 +1297,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.188</v>
+        <v>0.247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.433</v>
+        <v>0.497</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.722</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.201</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.75</v>
+        <v>0.722</v>
       </c>
       <c r="L9" t="n">
-        <v>0.188</v>
+        <v>0.201</v>
       </c>
       <c r="M9" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.722</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.201</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="T9" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.188</v>
+        <v>0.222</v>
       </c>
       <c r="V9" t="n">
-        <v>0.433</v>
+        <v>0.471</v>
       </c>
       <c r="W9" t="n">
-        <v>0.25</v>
+        <v>0.667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.188</v>
+        <v>0.222</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.433</v>
+        <v>0.471</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.25</v>
+        <v>0.722</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.188</v>
+        <v>0.201</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.25</v>
+        <v>2.444</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.188</v>
+        <v>0.173</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.433</v>
+        <v>0.416</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.75</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="E10" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.188</v>
+        <v>0.222</v>
       </c>
       <c r="G10" t="n">
-        <v>0.433</v>
+        <v>0.471</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="K10" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="L10" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="M10" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="T10" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="U10" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="V10" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5</v>
+        <v>0.778</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.25</v>
+        <v>0.173</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5</v>
+        <v>0.416</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.75</v>
+        <v>0.889</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.188</v>
+        <v>0.099</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.433</v>
+        <v>0.314</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.5</v>
+        <v>2.666</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.188</v>
+        <v>0.052</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.433</v>
+        <v>0.229</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.833</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="11">
@@ -1551,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="K11" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="M11" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="T11" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="V11" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5</v>
+        <v>0.778</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.25</v>
+        <v>0.173</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5</v>
+        <v>0.416</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.75</v>
+        <v>0.889</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.188</v>
+        <v>0.099</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.433</v>
+        <v>0.314</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.5</v>
+        <v>2.666</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.188</v>
+        <v>0.052</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.433</v>
+        <v>0.229</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.188</v>
+        <v>0.139</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.433</v>
+        <v>0.373</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.833</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="12">
@@ -1678,103 +1678,103 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>1.133</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.249</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="E12" t="n">
-        <v>1.667</v>
+        <v>1.933</v>
       </c>
       <c r="F12" t="n">
-        <v>0.222</v>
+        <v>1.396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.471</v>
+        <v>1.181</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.173</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>1.133</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>1.067</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.249</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>1.267</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.329</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.267</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5</v>
+        <v>0.329</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.707</v>
+        <v>0.573</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>1.214</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.311</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.667</v>
+        <v>0.312</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.25</v>
+        <v>3.297000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.298</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.546</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.188</v>
+        <v>0.059</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.433</v>
+        <v>0.242</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.083</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.556</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.889</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5.722</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="AF13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.688</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.167</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.75</v>
+        <v>1.389</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.349</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.829</v>
+        <v>0.591</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=any.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=any.xlsx
@@ -856,7 +856,7 @@
         <v>0.067</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.222</v>
+        <v>0.759</v>
       </c>
       <c r="AG4" t="n">
         <v>0.103</v>
@@ -983,7 +983,7 @@
         <v>0.314</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.666</v>
+        <v>0.944</v>
       </c>
       <c r="AG5" t="n">
         <v>0.052</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.421</v>
+        <v>0.841</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.562</v>
+        <v>0.9</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.328</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.577</v>
+        <v>0.876</v>
       </c>
       <c r="AG8" t="n">
         <v>0.06900000000000001</v>
@@ -1387,7 +1387,7 @@
         <v>0.448</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.444</v>
+        <v>0.778</v>
       </c>
       <c r="AG9" t="n">
         <v>0.173</v>
@@ -1514,7 +1514,7 @@
         <v>0.314</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.666</v>
+        <v>0.944</v>
       </c>
       <c r="AG10" t="n">
         <v>0.052</v>
@@ -1641,7 +1641,7 @@
         <v>0.314</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.666</v>
+        <v>0.944</v>
       </c>
       <c r="AG11" t="n">
         <v>0.052</v>
@@ -1768,7 +1768,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.297000000000001</v>
+        <v>1.235</v>
       </c>
       <c r="AG12" t="n">
         <v>0.298</v>
@@ -1895,7 +1895,7 @@
         <v>1.446</v>
       </c>
       <c r="AF13" t="n">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="AG13" t="n">
         <v>0.469</v>
